--- a/cbrunner/Parameters/Table_Core_Combustion.xlsx
+++ b/cbrunner/Parameters/Table_Core_Combustion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC0F80-8F9B-4A04-97F6-9852AA5C027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E82B47-922A-4DA5-9054-91369972D326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="390" windowWidth="20910" windowHeight="13185" xr2:uid="{184D4A5F-4300-4896-BF9A-A614FA83255A}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{184D4A5F-4300-4896-BF9A-A614FA83255A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Wildfire (%)</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Soil</t>
+  </si>
+  <si>
+    <t>Carbon pool</t>
   </si>
 </sst>
 </file>
@@ -205,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +245,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,25 +503,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8E3EE1-566D-4C58-8D88-BC3918ACCB2C}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="3" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -531,9 +529,9 @@
       <c r="I1" s="1"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -549,9 +547,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>10</v>
@@ -567,9 +565,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>100</v>
@@ -585,9 +583,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>10</v>
@@ -603,9 +601,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>10</v>
@@ -621,9 +619,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>35</v>
@@ -632,9 +630,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -643,9 +641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -654,20 +652,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
